--- a/biology/Médecine/Cyclophiline_J/Cyclophiline_J.xlsx
+++ b/biology/Médecine/Cyclophiline_J/Cyclophiline_J.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cyclophiline J est une protéine appartenant à la famille des cyclophilines ayant une activité de peptidyl prolyl isomérase. Son gène est le PPIL3 situé sur le chromosome 2 humain.
-Elle a près de 50 % d'homologie avec la cyclophiline A[5].
+Elle a près de 50 % d'homologie avec la cyclophiline A.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres peptidyl prolyl isomérases, elle permet la transformation de certaines protéines de la forme trans à la forme cis, modulant leur activité.
-Il se fixe sur l'apoptine, cette dernière intervenant dans l'apoptose des cellules cancéreuses[6].
+Il se fixe sur l'apoptine, cette dernière intervenant dans l'apoptose des cellules cancéreuses.
 </t>
         </is>
       </c>
